--- a/xlsx/凯恩斯主义经济学_intext.xlsx
+++ b/xlsx/凯恩斯主义经济学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>凯恩斯主义经济学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Keynesian economics</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_凯恩斯主义经济学</t>
+    <t>政策_政策_货币政策_凯恩斯主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>總需求</t>
+    <t>总需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興凱恩斯學派</t>
+    <t>新兴凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E4%B9%89%E7%BB%BC%E5%90%88</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>就業</t>
+    <t>就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E7%94%A2</t>
   </si>
   <si>
-    <t>房地產</t>
+    <t>房地产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>實業</t>
+    <t>实业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%AE%B6</t>
@@ -329,19 +329,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>失業</t>
+    <t>失业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%AD%B7</t>
   </si>
   <si>
-    <t>學歷</t>
+    <t>学历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E5%8C%96</t>
   </si>
   <si>
-    <t>自動化</t>
+    <t>自动化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍事凱因斯主義</t>
+    <t>军事凯因斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%8C%E5%85%8B%E6%96%AF</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%B4%BE</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典學派</t>
+    <t>新古典学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典學派</t>
+    <t>新兴古典学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>後凱恩斯學派</t>
+    <t>后凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AD%A6%E6%B4%BE</t>
@@ -515,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>洛桑學派</t>
+    <t>洛桑学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%98%89%E5%9B%BE%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
@@ -557,9 +557,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -587,19 +584,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱經濟學</t>
+    <t>热经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neo-Marxian_economics</t>
@@ -617,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>非主流經濟學</t>
+    <t>非主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -635,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3701,7 @@
         <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3730,10 +3727,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3759,10 +3756,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3788,10 +3785,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3817,10 +3814,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3846,10 +3843,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3875,10 +3872,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3904,10 +3901,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3933,10 +3930,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3962,10 +3959,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>59</v>
@@ -3991,10 +3988,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4020,10 +4017,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4049,10 +4046,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4078,10 +4075,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4107,10 +4104,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4136,10 +4133,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4165,10 +4162,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4194,10 +4191,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4223,10 +4220,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
